--- a/mysql-master/analysis_module/com.hryt.speechservice.xlsx
+++ b/mysql-master/analysis_module/com.hryt.speechservice.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,62 +367,87 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>packages</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>android_ver</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>crash</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>loop</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>timepass</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>dalvik max</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>dalvik min</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>dalvik avg</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>native max</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>native min</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>native avg</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>cpu max</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>cpu min</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>cpu avg</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>totalmem max</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>totalmem min</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>totalmem avg</t>
         </is>
       </c>
     </row>
@@ -437,18 +462,22 @@
           <t>05-27</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>com.hryt.speechservice</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.7.133.X101_userdebug_2000000000</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>23</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -471,6 +500,21 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -485,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +583,11 @@
           <t>CPU</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>TOTALMEM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -574,6 +623,9 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -609,6 +661,9 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -644,8 +699,21 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>android version</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.7.133.X101_userdebug_2000000000</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>native max</t>
@@ -669,6 +737,9 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -698,6 +769,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
@@ -725,6 +799,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -752,6 +829,9 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -779,6 +859,9 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -806,8 +889,19 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>totalmem max</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>18:17:58</t>
@@ -825,8 +919,19 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>totalmem min</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>18:21:26</t>
@@ -844,8 +949,19 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>totalmem avg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>18:24:57</t>
@@ -861,6 +977,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,6 +1001,9 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="inlineStr">
@@ -901,6 +1023,9 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="inlineStr">
@@ -920,6 +1045,9 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="inlineStr">
@@ -939,6 +1067,9 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="inlineStr">
@@ -958,6 +1089,9 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="E19" t="inlineStr">
@@ -977,6 +1111,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="inlineStr">
@@ -996,6 +1133,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="E21" t="inlineStr">
@@ -1015,6 +1155,9 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="E22" t="inlineStr">
@@ -1034,6 +1177,9 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="inlineStr">
@@ -1053,6 +1199,9 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="E24" t="inlineStr">
@@ -1070,6 +1219,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
